--- a/examples/Rapha_Racing_UAT_Imp_Doc_V2.xlsx
+++ b/examples/Rapha_Racing_UAT_Imp_Doc_V2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10113"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10413"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sksa1846/Documents/Projects/Current/TERRAFORM/Rapha Race/Docs/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://raxglobal-my.sharepoint.com/personal/carlo_taguinod_rackspace_com/Documents/0-Projects/SANDBOX/rax-apj-build-tool/examples/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DB1480A-8C0A-8849-84BF-DC5A77340ED0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{0DB1480A-8C0A-8849-84BF-DC5A77340ED0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{5532F787-38F3-AF4C-B82F-BD81E3099AB9}"/>
   <bookViews>
-    <workbookView xWindow="1320" yWindow="460" windowWidth="38400" windowHeight="21140" tabRatio="792" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="36100" yWindow="3260" windowWidth="28800" windowHeight="16700" tabRatio="792" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="2" r:id="rId1"/>
@@ -165,7 +165,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="734" uniqueCount="326">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="734" uniqueCount="327">
   <si>
     <t xml:space="preserve">Account </t>
   </si>
@@ -1173,6 +1173,9 @@
     <t>- Iremove MS-SQL EC2 instance.
 - Add RDS
 - Setup SG for RDS</t>
+  </si>
+  <si>
+    <t>Subnetworks</t>
   </si>
 </sst>
 </file>
@@ -1503,56 +1506,7 @@
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="1"/>
     <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
   </cellStyles>
-  <dxfs count="70">
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="68">
     <dxf>
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -1592,6 +1546,39 @@
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
           <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2081,33 +2068,33 @@
   </dxfs>
   <tableStyles count="4" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7">
     <tableStyle name="ResourceTables" pivot="0" count="4" xr9:uid="{A25F718D-4690-5F47-8EF4-A305DC474467}">
-      <tableStyleElement type="wholeTable" dxfId="69"/>
-      <tableStyleElement type="headerRow" dxfId="68"/>
-      <tableStyleElement type="firstColumn" dxfId="67"/>
-      <tableStyleElement type="secondRowStripe" dxfId="66"/>
+      <tableStyleElement type="wholeTable" dxfId="67"/>
+      <tableStyleElement type="headerRow" dxfId="66"/>
+      <tableStyleElement type="firstColumn" dxfId="65"/>
+      <tableStyleElement type="secondRowStripe" dxfId="64"/>
     </tableStyle>
     <tableStyle name="SummaryTables" pivot="0" count="3" xr9:uid="{0FC9D21F-78DE-FA4D-9FEC-838D055016BE}">
-      <tableStyleElement type="wholeTable" dxfId="65"/>
-      <tableStyleElement type="headerRow" dxfId="64"/>
-      <tableStyleElement type="firstColumn" dxfId="63"/>
+      <tableStyleElement type="wholeTable" dxfId="63"/>
+      <tableStyleElement type="headerRow" dxfId="62"/>
+      <tableStyleElement type="firstColumn" dxfId="61"/>
     </tableStyle>
     <tableStyle name="TableStyleMedium3 Red" pivot="0" count="7" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
-      <tableStyleElement type="wholeTable" dxfId="62"/>
-      <tableStyleElement type="headerRow" dxfId="61"/>
-      <tableStyleElement type="totalRow" dxfId="60"/>
-      <tableStyleElement type="firstColumn" dxfId="59"/>
-      <tableStyleElement type="lastColumn" dxfId="58"/>
-      <tableStyleElement type="firstRowStripe" dxfId="57"/>
-      <tableStyleElement type="firstColumnStripe" dxfId="56"/>
+      <tableStyleElement type="wholeTable" dxfId="60"/>
+      <tableStyleElement type="headerRow" dxfId="59"/>
+      <tableStyleElement type="totalRow" dxfId="58"/>
+      <tableStyleElement type="firstColumn" dxfId="57"/>
+      <tableStyleElement type="lastColumn" dxfId="56"/>
+      <tableStyleElement type="firstRowStripe" dxfId="55"/>
+      <tableStyleElement type="firstColumnStripe" dxfId="54"/>
     </tableStyle>
     <tableStyle name="TableStyleMedium3 Red Heading" pivot="0" count="7" xr9:uid="{00000000-0011-0000-FFFF-FFFF01000000}">
-      <tableStyleElement type="wholeTable" dxfId="55"/>
-      <tableStyleElement type="headerRow" dxfId="54"/>
-      <tableStyleElement type="totalRow" dxfId="53"/>
-      <tableStyleElement type="firstColumn" dxfId="52"/>
-      <tableStyleElement type="lastColumn" dxfId="51"/>
-      <tableStyleElement type="firstRowStripe" dxfId="50"/>
-      <tableStyleElement type="firstColumnStripe" dxfId="49"/>
+      <tableStyleElement type="wholeTable" dxfId="53"/>
+      <tableStyleElement type="headerRow" dxfId="52"/>
+      <tableStyleElement type="totalRow" dxfId="51"/>
+      <tableStyleElement type="firstColumn" dxfId="50"/>
+      <tableStyleElement type="lastColumn" dxfId="49"/>
+      <tableStyleElement type="firstRowStripe" dxfId="48"/>
+      <tableStyleElement type="firstColumnStripe" dxfId="47"/>
     </tableStyle>
   </tableStyles>
   <colors>
@@ -2212,7 +2199,7 @@
     <filterColumn colId="1" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{011A2B45-958B-4922-A984-E636001FF0C6}" name="Global Tags" dataDxfId="46"/>
+    <tableColumn id="1" xr3:uid="{011A2B45-958B-4922-A984-E636001FF0C6}" name="Global Tags" dataDxfId="44"/>
     <tableColumn id="2" xr3:uid="{E60F43DC-153D-4FEC-A43F-D4AF26437688}" name="Value"/>
   </tableColumns>
   <tableStyleInfo name="ResourceTables" showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -2223,8 +2210,8 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{00000000-000C-0000-FFFF-FFFF09000000}" name="ALBs" displayName="ALBs" ref="B56:D66" totalsRowShown="0" headerRowCellStyle="Normal" dataCellStyle="Normal">
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0900-000001000000}" name="Application Load Balancers" dataCellStyle="Normal"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0900-000002000000}" name="ext-alb" dataDxfId="45" dataCellStyle="Normal"/>
-    <tableColumn id="3" xr3:uid="{A71475A5-C9F4-2742-90C7-2119535FCBAA}" name="int-alb" dataDxfId="44" dataCellStyle="Normal"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0900-000002000000}" name="ext-alb" dataDxfId="43" dataCellStyle="Normal"/>
+    <tableColumn id="3" xr3:uid="{A71475A5-C9F4-2742-90C7-2119535FCBAA}" name="int-alb" dataDxfId="42" dataCellStyle="Normal"/>
   </tableColumns>
   <tableStyleInfo name="ResourceTables" showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2234,13 +2221,13 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="19" xr:uid="{00000000-000C-0000-FFFF-FFFF0A000000}" name="Instances" displayName="Instances" ref="B17:I30" totalsRowShown="0" headerRowCellStyle="Normal" dataCellStyle="Normal">
   <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0A00-000001000000}" name="EC2 Standalone Instances" dataCellStyle="Normal"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0A00-000004000000}" name=" uat-hybris-fe-001" dataDxfId="43" dataCellStyle="Normal"/>
-    <tableColumn id="2" xr3:uid="{53398216-2C62-6C40-AFC2-3833758ADD29}" name=" uat-hybris-fe-002" dataDxfId="42" dataCellStyle="Normal"/>
-    <tableColumn id="3" xr3:uid="{A4D0E3B1-9B92-C541-A4DA-7D47EC3C5806}" name="uat-hybris-sf-001" dataDxfId="41" dataCellStyle="Normal"/>
-    <tableColumn id="5" xr3:uid="{B1A6A669-DBC3-2740-84D5-FB462BBBC8BA}" name="uat-hybris-sf-002" dataDxfId="40" dataCellStyle="Normal"/>
-    <tableColumn id="6" xr3:uid="{A8FCD9C4-C3BA-144A-8376-04C151C626C7}" name=" uat-solr-master" dataDxfId="39" dataCellStyle="Normal"/>
-    <tableColumn id="7" xr3:uid="{891A1DD5-DBDC-3049-883A-F234353B4EC1}" name=" uat-solr-slave" dataDxfId="38" dataCellStyle="Normal"/>
-    <tableColumn id="11" xr3:uid="{4B7A1F70-69B7-074F-8456-978B042898FA}" name="uat-sftp" dataDxfId="37" dataCellStyle="Normal"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0A00-000004000000}" name=" uat-hybris-fe-001" dataDxfId="41" dataCellStyle="Normal"/>
+    <tableColumn id="2" xr3:uid="{53398216-2C62-6C40-AFC2-3833758ADD29}" name=" uat-hybris-fe-002" dataDxfId="40" dataCellStyle="Normal"/>
+    <tableColumn id="3" xr3:uid="{A4D0E3B1-9B92-C541-A4DA-7D47EC3C5806}" name="uat-hybris-sf-001" dataDxfId="39" dataCellStyle="Normal"/>
+    <tableColumn id="5" xr3:uid="{B1A6A669-DBC3-2740-84D5-FB462BBBC8BA}" name="uat-hybris-sf-002" dataDxfId="38" dataCellStyle="Normal"/>
+    <tableColumn id="6" xr3:uid="{A8FCD9C4-C3BA-144A-8376-04C151C626C7}" name=" uat-solr-master" dataDxfId="37" dataCellStyle="Normal"/>
+    <tableColumn id="7" xr3:uid="{891A1DD5-DBDC-3049-883A-F234353B4EC1}" name=" uat-solr-slave" dataDxfId="36" dataCellStyle="Normal"/>
+    <tableColumn id="11" xr3:uid="{4B7A1F70-69B7-074F-8456-978B042898FA}" name="uat-sftp" dataDxfId="35" dataCellStyle="Normal"/>
   </tableColumns>
   <tableStyleInfo name="ResourceTables" showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2250,9 +2237,9 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{00000000-000C-0000-FFFF-FFFF0B000000}" name="ASGs" displayName="ASGs" ref="B2:E15" totalsRowShown="0" headerRowCellStyle="Normal" dataCellStyle="Normal">
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0B00-000001000000}" name="EC2 Autoscaling Groups" dataCellStyle="Normal"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0B00-000003000000}" name="uat-admin-fe" dataDxfId="36" dataCellStyle="Normal"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0B00-000002000000}" name=" uat-admin-be" dataDxfId="35" dataCellStyle="Normal"/>
-    <tableColumn id="4" xr3:uid="{0FAF9E7B-4C32-AF4C-B9EF-3B13545D510B}" name="uat-solr-slave" dataDxfId="34" dataCellStyle="Normal"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0B00-000003000000}" name="uat-admin-fe" dataDxfId="34" dataCellStyle="Normal"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0B00-000002000000}" name=" uat-admin-be" dataDxfId="33" dataCellStyle="Normal"/>
+    <tableColumn id="4" xr3:uid="{0FAF9E7B-4C32-AF4C-B9EF-3B13545D510B}" name="uat-solr-slave" dataDxfId="32" dataCellStyle="Normal"/>
   </tableColumns>
   <tableStyleInfo name="ResourceTables" showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2261,8 +2248,8 @@
 <file path=xl/tables/table15.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="51" xr:uid="{00000000-000C-0000-FFFF-FFFF0C000000}" name="EFS" displayName="EFS" ref="B97:C103" totalsRowShown="0" headerRowCellStyle="Normal" dataCellStyle="Normal">
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0C00-000001000000}" name="EFS" dataDxfId="33" dataCellStyle="Normal"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0C00-000002000000}" name="uat-efs" dataDxfId="32" dataCellStyle="Normal"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0C00-000001000000}" name="EFS" dataDxfId="31" dataCellStyle="Normal"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0C00-000002000000}" name="uat-efs" dataDxfId="30" dataCellStyle="Normal"/>
   </tableColumns>
   <tableStyleInfo name="ResourceTables" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2271,39 +2258,39 @@
 <file path=xl/tables/table16.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="50" xr:uid="{00000000-000C-0000-FFFF-FFFF0E000000}" name="S3Buckets" displayName="S3Buckets" ref="B87:C95" totalsRowShown="0" headerRowCellStyle="Normal" dataCellStyle="Normal">
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0E00-000001000000}" name="S3 Buckets / Glacier" dataDxfId="31" dataCellStyle="Normal"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0E00-000002000000}" name="436185664504-deployment-uat-eu-west-1" dataDxfId="30" dataCellStyle="Normal"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0E00-000001000000}" name="S3 Buckets / Glacier" dataDxfId="29" dataCellStyle="Normal"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0E00-000002000000}" name="436185664504-deployment-uat-eu-west-1" dataDxfId="28" dataCellStyle="Normal"/>
   </tableColumns>
   <tableStyleInfo name="ResourceTables" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table17.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{00000000-000C-0000-FFFF-FFFF0F000000}" name="TargetGroups" displayName="TargetGroups" ref="B69:J76" totalsRowShown="0" tableBorderDxfId="29" headerRowCellStyle="Normal" dataCellStyle="Normal">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{00000000-000C-0000-FFFF-FFFF0F000000}" name="TargetGroups" displayName="TargetGroups" ref="B69:J76" totalsRowShown="0" tableBorderDxfId="27" headerRowCellStyle="Normal" dataCellStyle="Normal">
   <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0F00-000001000000}" name="Target Groups" dataCellStyle="Normal"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0F00-000002000000}" name="ext-alb-80-tg" dataDxfId="28" dataCellStyle="Normal"/>
-    <tableColumn id="3" xr3:uid="{122BC03E-8BC2-495A-87BD-6F1B8C4C4CA2}" name="ext-alb-443-tg" dataDxfId="27" dataCellStyle="Normal"/>
-    <tableColumn id="4" xr3:uid="{29E0B7B8-5F75-A545-8485-D9796580CD99}" name="int-alb-tg" dataDxfId="26" dataCellStyle="Normal"/>
-    <tableColumn id="5" xr3:uid="{8A1AED87-5064-6B42-8970-83AEFFCF9BFF}" name="ext-nlb-tg" dataDxfId="25" dataCellStyle="Normal"/>
-    <tableColumn id="6" xr3:uid="{353A6E9D-71EC-244C-A6B8-7282C902C883}" name="int-nlb-hybris-80-tg" dataDxfId="24" dataCellStyle="Normal"/>
-    <tableColumn id="7" xr3:uid="{0551727B-5057-A24F-AEDA-C2A2A130FDA4}" name="int-nlb-hybris-8009-tg" dataDxfId="23" dataCellStyle="Normal"/>
-    <tableColumn id="8" xr3:uid="{1FC8F478-1FFF-FD4D-A0A1-716FC105BEFC}" name="int-nlb-admin-be-80-tg" dataDxfId="22" dataCellStyle="Normal"/>
-    <tableColumn id="9" xr3:uid="{A80B6924-4C08-9A4F-BA8C-E9D85738BC8D}" name="int-nlb-admin-be-8009-tg" dataDxfId="21" dataCellStyle="Normal"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0F00-000002000000}" name="ext-alb-80-tg" dataDxfId="26" dataCellStyle="Normal"/>
+    <tableColumn id="3" xr3:uid="{122BC03E-8BC2-495A-87BD-6F1B8C4C4CA2}" name="ext-alb-443-tg" dataDxfId="25" dataCellStyle="Normal"/>
+    <tableColumn id="4" xr3:uid="{29E0B7B8-5F75-A545-8485-D9796580CD99}" name="int-alb-tg" dataDxfId="24" dataCellStyle="Normal"/>
+    <tableColumn id="5" xr3:uid="{8A1AED87-5064-6B42-8970-83AEFFCF9BFF}" name="ext-nlb-tg" dataDxfId="23" dataCellStyle="Normal"/>
+    <tableColumn id="6" xr3:uid="{353A6E9D-71EC-244C-A6B8-7282C902C883}" name="int-nlb-hybris-80-tg" dataDxfId="22" dataCellStyle="Normal"/>
+    <tableColumn id="7" xr3:uid="{0551727B-5057-A24F-AEDA-C2A2A130FDA4}" name="int-nlb-hybris-8009-tg" dataDxfId="21" dataCellStyle="Normal"/>
+    <tableColumn id="8" xr3:uid="{1FC8F478-1FFF-FD4D-A0A1-716FC105BEFC}" name="int-nlb-admin-be-80-tg" dataDxfId="20" dataCellStyle="Normal"/>
+    <tableColumn id="9" xr3:uid="{A80B6924-4C08-9A4F-BA8C-E9D85738BC8D}" name="int-nlb-admin-be-8009-tg" dataDxfId="19" dataCellStyle="Normal"/>
   </tableColumns>
   <tableStyleInfo name="ResourceTables" showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table18.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{02B819BA-6C5F-214F-AB5C-5EFAD585ABA4}" name="NLBs" displayName="NLBs" ref="B47:G54" totalsRowShown="0" tableBorderDxfId="20" headerRowCellStyle="Normal" dataCellStyle="Normal">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{02B819BA-6C5F-214F-AB5C-5EFAD585ABA4}" name="NLBs" displayName="NLBs" ref="B47:G54" totalsRowShown="0" tableBorderDxfId="18" headerRowCellStyle="Normal" dataCellStyle="Normal">
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{C696D916-6AD4-A349-84AB-4569BD2FB83D}" name="Network Load Balancers" dataCellStyle="Normal"/>
-    <tableColumn id="2" xr3:uid="{B2DFAF86-6BBA-B049-BA36-DC5C204FC0C9}" name="ext-nlb" dataDxfId="19" dataCellStyle="Normal"/>
+    <tableColumn id="2" xr3:uid="{B2DFAF86-6BBA-B049-BA36-DC5C204FC0C9}" name="ext-nlb" dataDxfId="17" dataCellStyle="Normal"/>
     <tableColumn id="3" xr3:uid="{FCB31860-8AF0-3349-928A-54ECE448AD0A}" name="int-nlb-hybris" dataCellStyle="Normal"/>
-    <tableColumn id="4" xr3:uid="{A44CB625-E238-A745-9E0E-FAABFFE6FAC3}" name="int-nlb-admin" dataDxfId="18" dataCellStyle="Normal"/>
-    <tableColumn id="5" xr3:uid="{D06BDBC6-3BBA-4049-B404-8D2B6DA1309A}" name="int-nlbsolr-m" dataDxfId="17" dataCellStyle="Normal"/>
-    <tableColumn id="6" xr3:uid="{F67189B2-7C1F-B940-939E-422587490661}" name="int-nlbsolr-_x000a_s" dataDxfId="16" dataCellStyle="Normal"/>
+    <tableColumn id="4" xr3:uid="{A44CB625-E238-A745-9E0E-FAABFFE6FAC3}" name="int-nlb-admin" dataDxfId="16" dataCellStyle="Normal"/>
+    <tableColumn id="5" xr3:uid="{D06BDBC6-3BBA-4049-B404-8D2B6DA1309A}" name="int-nlbsolr-m" dataDxfId="15" dataCellStyle="Normal"/>
+    <tableColumn id="6" xr3:uid="{F67189B2-7C1F-B940-939E-422587490661}" name="int-nlbsolr-_x000a_s" dataDxfId="14" dataCellStyle="Normal"/>
   </tableColumns>
   <tableStyleInfo name="ResourceTables" showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2313,7 +2300,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="56" xr:uid="{00000000-000C-0000-FFFF-FFFF1A000000}" name="ElasticacheRedis" displayName="ElasticacheRedis" ref="B17:C34" totalsRowShown="0" headerRowCellStyle="Normal" dataCellStyle="Normal">
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-1A00-000001000000}" name="Elasticache - Redis" dataCellStyle="Normal"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-1A00-000002000000}" name="uat-redis" dataDxfId="15" dataCellStyle="Normal"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-1A00-000002000000}" name="uat-redis" dataDxfId="13" dataCellStyle="Normal"/>
   </tableColumns>
   <tableStyleInfo name="ResourceTables" showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2334,10 +2321,10 @@
 </file>
 
 <file path=xl/tables/table20.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="14" xr:uid="{5221A530-5119-5F4E-A251-587909B0B3CB}" name="RDS" displayName="RDS" ref="B2:C15" totalsRowShown="0" dataDxfId="3" tableBorderDxfId="2" headerRowCellStyle="Normal" dataCellStyle="Normal">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="14" xr:uid="{5221A530-5119-5F4E-A251-587909B0B3CB}" name="RDS" displayName="RDS" ref="B2:C15" totalsRowShown="0" dataDxfId="12" tableBorderDxfId="11" headerRowCellStyle="Normal" dataCellStyle="Normal">
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{3171D40D-348B-E24D-AA0D-818E3822F058}" name="RDS" dataDxfId="1" dataCellStyle="Normal"/>
-    <tableColumn id="2" xr3:uid="{5DB2E6C0-E45B-274F-A3CD-B284826DF06D}" name="ProdRds" dataDxfId="0" dataCellStyle="Normal"/>
+    <tableColumn id="1" xr3:uid="{3171D40D-348B-E24D-AA0D-818E3822F058}" name="RDS" dataDxfId="10" dataCellStyle="Normal"/>
+    <tableColumn id="2" xr3:uid="{5DB2E6C0-E45B-274F-A3CD-B284826DF06D}" name="ProdRds" dataDxfId="9" dataCellStyle="Normal"/>
   </tableColumns>
   <tableStyleInfo name="ResourceTables" showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2370,7 +2357,7 @@
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{C2BDCC7D-EDE7-824F-83FD-5EE622BDD2E7}" name="IAM Resource Name"/>
     <tableColumn id="2" xr3:uid="{7ED06237-8FF2-3B4B-86A6-9E5D0434C143}" name="Type"/>
-    <tableColumn id="3" xr3:uid="{71B3E827-94DF-7E48-B355-8FF1D3C78DD1}" name="Access to Services" dataDxfId="14"/>
+    <tableColumn id="3" xr3:uid="{71B3E827-94DF-7E48-B355-8FF1D3C78DD1}" name="Access to Services" dataDxfId="8"/>
     <tableColumn id="4" xr3:uid="{935E7066-3487-2948-A5BF-8E51CC2BFB9D}" name="Notes"/>
   </tableColumns>
   <tableStyleInfo name="ResourceTables" showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -2378,7 +2365,7 @@
 </file>
 
 <file path=xl/tables/table23.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="21" xr:uid="{CD9DD177-93DA-460F-B401-9B9E10C1A1EC}" name="CodeDeployApp" displayName="CodeDeployApp" ref="B2:E5" totalsRowShown="0" tableBorderDxfId="13" headerRowCellStyle="Normal" dataCellStyle="Normal">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="21" xr:uid="{CD9DD177-93DA-460F-B401-9B9E10C1A1EC}" name="CodeDeployApp" displayName="CodeDeployApp" ref="B2:E5" totalsRowShown="0" tableBorderDxfId="7" headerRowCellStyle="Normal" dataCellStyle="Normal">
   <autoFilter ref="B2:E5" xr:uid="{5522AB56-B4A2-4615-BD0E-67FEBE87F08C}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -2387,16 +2374,16 @@
   </autoFilter>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{101A6E50-7913-43BB-A013-588C23355545}" name="CodeDeploy Applications" dataCellStyle="Normal"/>
-    <tableColumn id="2" xr3:uid="{A004D697-4657-4A43-AAFE-E23741B3DB67}" name="uat-fe" dataDxfId="12" dataCellStyle="Normal"/>
-    <tableColumn id="3" xr3:uid="{A633B7E6-825D-714D-8A2E-8AED22EC08FD}" name="uat-be" dataDxfId="11" dataCellStyle="Normal"/>
-    <tableColumn id="4" xr3:uid="{96BC0C79-828E-3946-9EDD-4027658A624E}" name="uat-solv" dataDxfId="10" dataCellStyle="Normal"/>
+    <tableColumn id="2" xr3:uid="{A004D697-4657-4A43-AAFE-E23741B3DB67}" name="uat-fe" dataDxfId="6" dataCellStyle="Normal"/>
+    <tableColumn id="3" xr3:uid="{A633B7E6-825D-714D-8A2E-8AED22EC08FD}" name="uat-be" dataDxfId="5" dataCellStyle="Normal"/>
+    <tableColumn id="4" xr3:uid="{96BC0C79-828E-3946-9EDD-4027658A624E}" name="uat-solv" dataDxfId="4" dataCellStyle="Normal"/>
   </tableColumns>
   <tableStyleInfo name="ResourceTables" showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table24.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="23" xr:uid="{77DF0F01-972A-468D-BF52-FB313847A9B2}" name="CodeDeployDeployments" displayName="CodeDeployDeployments" ref="B7:E15" totalsRowShown="0" tableBorderDxfId="9" headerRowCellStyle="Normal" dataCellStyle="Normal">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="23" xr:uid="{77DF0F01-972A-468D-BF52-FB313847A9B2}" name="CodeDeployDeployments" displayName="CodeDeployDeployments" ref="B7:E15" totalsRowShown="0" tableBorderDxfId="3" headerRowCellStyle="Normal" dataCellStyle="Normal">
   <autoFilter ref="B7:E15" xr:uid="{1C6492C8-E2EB-41AD-BEC3-79F84492DC7B}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -2405,9 +2392,9 @@
   </autoFilter>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{B004DB86-F6BD-4385-B304-926FDAC11AF0}" name="CodeDeploy Deployments" dataCellStyle="Normal"/>
-    <tableColumn id="2" xr3:uid="{222304CE-A7CF-4579-8AAA-25B3C8E5D4D5}" name="fedeployment" dataDxfId="8" dataCellStyle="Normal"/>
-    <tableColumn id="3" xr3:uid="{3732C63B-71DA-4845-AA56-FFA9F98B3BBA}" name="bedeployment" dataDxfId="7" dataCellStyle="Normal"/>
-    <tableColumn id="4" xr3:uid="{9B47FB94-94A4-8142-B7C4-05A89A407C2A}" name="solvdeployment" dataDxfId="6" dataCellStyle="Normal"/>
+    <tableColumn id="2" xr3:uid="{222304CE-A7CF-4579-8AAA-25B3C8E5D4D5}" name="fedeployment" dataDxfId="2" dataCellStyle="Normal"/>
+    <tableColumn id="3" xr3:uid="{3732C63B-71DA-4845-AA56-FFA9F98B3BBA}" name="bedeployment" dataDxfId="1" dataCellStyle="Normal"/>
+    <tableColumn id="4" xr3:uid="{9B47FB94-94A4-8142-B7C4-05A89A407C2A}" name="solvdeployment" dataDxfId="0" dataCellStyle="Normal"/>
   </tableColumns>
   <tableStyleInfo name="ResourceTables" showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2438,7 +2425,7 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF04000000}" name="VPC" displayName="VPC" ref="B5:C13" totalsRowShown="0" tableBorderDxfId="48" headerRowCellStyle="Normal" dataCellStyle="Normal">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF04000000}" name="VPC" displayName="VPC" ref="B5:C13" totalsRowShown="0" tableBorderDxfId="46" headerRowCellStyle="Normal" dataCellStyle="Normal">
   <autoFilter ref="B5:C13" xr:uid="{00000000-0009-0000-0100-000004000000}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -2452,9 +2439,9 @@
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{00000000-000C-0000-FFFF-FFFF05000000}" name="Subnets" displayName="Subnets" ref="B15:F19" totalsRowShown="0" tableBorderDxfId="47" headerRowCellStyle="Normal" dataCellStyle="Normal">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{00000000-000C-0000-FFFF-FFFF05000000}" name="Subnets" displayName="Subnets" ref="B15:F19" totalsRowShown="0" tableBorderDxfId="45" headerRowCellStyle="Normal" dataCellStyle="Normal">
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0500-000001000000}" name="Subnets" dataCellStyle="Normal"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0500-000001000000}" name="Subnetworks" dataCellStyle="Normal"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0500-000002000000}" name="Public-AZ1" dataCellStyle="Normal"/>
     <tableColumn id="3" xr3:uid="{00000000-0010-0000-0500-000003000000}" name="Public-AZ2" dataCellStyle="Normal"/>
     <tableColumn id="4" xr3:uid="{00000000-0010-0000-0500-000004000000}" name="Private-AZ1" dataCellStyle="Normal"/>
@@ -2946,7 +2933,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B2:F48"/>
   <sheetViews>
-    <sheetView showGridLines="0" showRowColHeaders="0" workbookViewId="0"/>
+    <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -3050,7 +3039,7 @@
     </row>
     <row r="15" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B15" t="s">
-        <v>26</v>
+        <v>326</v>
       </c>
       <c r="C15" t="s">
         <v>27</v>
@@ -5280,7 +5269,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="13" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:3" ht="17" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
         <v>136</v>
       </c>
@@ -6816,7 +6805,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="B2:E15"/>
   <sheetViews>
-    <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" workbookViewId="0"/>
+    <sheetView showGridLines="0" showRowColHeaders="0" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -7036,15 +7025,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100115BDFBCBC55954DBE3A036F43C688BE" ma:contentTypeVersion="6" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="f2602281623a1436ad7b29323987829d">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="6be0c7cb-7b3c-42ff-aba9-440d72149579" xmlns:ns3="de305a12-becf-467d-a6c1-7efafa548d98" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="6563a88de22b55a81dac40f5abe7b9cd" ns2:_="" ns3:_="">
     <xsd:import namespace="6be0c7cb-7b3c-42ff-aba9-440d72149579"/>
@@ -7223,6 +7203,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
@@ -7230,14 +7219,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{67FBEE8F-C278-44E2-AAC4-E0F2E05597DF}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C3E69D3C-B089-40EA-8109-45FCB7B3FCBC}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -7256,19 +7237,27 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{67FBEE8F-C278-44E2-AAC4-E0F2E05597DF}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{34B1892E-3E6C-4CE1-BBE1-31A16A61250C}">
   <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="de305a12-becf-467d-a6c1-7efafa548d98"/>
+    <ds:schemaRef ds:uri="6be0c7cb-7b3c-42ff-aba9-440d72149579"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="6be0c7cb-7b3c-42ff-aba9-440d72149579"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="de305a12-becf-467d-a6c1-7efafa548d98"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/examples/Rapha_Racing_UAT_Imp_Doc_V2.xlsx
+++ b/examples/Rapha_Racing_UAT_Imp_Doc_V2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://raxglobal-my.sharepoint.com/personal/carlo_taguinod_rackspace_com/Documents/0-Projects/SANDBOX/rax-apj-build-tool/examples/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{0DB1480A-8C0A-8849-84BF-DC5A77340ED0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{5532F787-38F3-AF4C-B82F-BD81E3099AB9}"/>
+  <xr:revisionPtr revIDLastSave="7" documentId="13_ncr:1_{0DB1480A-8C0A-8849-84BF-DC5A77340ED0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{75796ABC-BF4A-824F-B898-2FF9CC48143F}"/>
   <bookViews>
-    <workbookView xWindow="36100" yWindow="3260" windowWidth="28800" windowHeight="16700" tabRatio="792" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="36720" yWindow="2560" windowWidth="35100" windowHeight="15580" tabRatio="792" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="2" r:id="rId1"/>
@@ -165,7 +165,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="734" uniqueCount="327">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="733" uniqueCount="327">
   <si>
     <t xml:space="preserve">Account </t>
   </si>
@@ -670,9 +670,6 @@
   </si>
   <si>
     <t>Global Tags</t>
-  </si>
-  <si>
-    <t>172.18.0.0/22</t>
   </si>
   <si>
     <t>Imported</t>
@@ -1176,6 +1173,9 @@
   </si>
   <si>
     <t>Subnetworks</t>
+  </si>
+  <si>
+    <t>Private-AZ3</t>
   </si>
 </sst>
 </file>
@@ -2439,13 +2439,14 @@
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{00000000-000C-0000-FFFF-FFFF05000000}" name="Subnets" displayName="Subnets" ref="B15:F19" totalsRowShown="0" tableBorderDxfId="45" headerRowCellStyle="Normal" dataCellStyle="Normal">
-  <tableColumns count="5">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{00000000-000C-0000-FFFF-FFFF05000000}" name="Subnets" displayName="Subnets" ref="B15:G19" totalsRowShown="0" tableBorderDxfId="45" headerRowCellStyle="Normal" dataCellStyle="Normal">
+  <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0500-000001000000}" name="Subnetworks" dataCellStyle="Normal"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0500-000002000000}" name="Public-AZ1" dataCellStyle="Normal"/>
     <tableColumn id="3" xr3:uid="{00000000-0010-0000-0500-000003000000}" name="Public-AZ2" dataCellStyle="Normal"/>
     <tableColumn id="4" xr3:uid="{00000000-0010-0000-0500-000004000000}" name="Private-AZ1" dataCellStyle="Normal"/>
     <tableColumn id="5" xr3:uid="{00000000-0010-0000-0500-000005000000}" name="Private-AZ2" dataCellStyle="Normal"/>
+    <tableColumn id="6" xr3:uid="{B7DCA12D-B1A5-4B44-A9FD-EFC74E0BDC41}" name="Private-AZ3" dataCellStyle="Normal"/>
   </tableColumns>
   <tableStyleInfo name="ResourceTables" showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2783,7 +2784,7 @@
         <v>109</v>
       </c>
       <c r="C11" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="12" spans="2:3" x14ac:dyDescent="0.2">
@@ -2799,7 +2800,7 @@
         <v>111</v>
       </c>
       <c r="C13" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="15" spans="2:3" x14ac:dyDescent="0.2">
@@ -2815,7 +2816,7 @@
         <v>3</v>
       </c>
       <c r="C16" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="17" spans="2:3" x14ac:dyDescent="0.2">
@@ -2823,7 +2824,7 @@
         <v>115</v>
       </c>
       <c r="C17" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="18" spans="2:3" x14ac:dyDescent="0.2">
@@ -2860,7 +2861,7 @@
         <v>7</v>
       </c>
       <c r="C23" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="24" spans="2:3" x14ac:dyDescent="0.2">
@@ -2868,7 +2869,7 @@
         <v>8</v>
       </c>
       <c r="C24" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="26" spans="2:3" x14ac:dyDescent="0.2">
@@ -2896,18 +2897,18 @@
     </row>
     <row r="31" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B31" t="s">
+        <v>295</v>
+      </c>
+      <c r="C31" s="1" t="s">
         <v>296</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>297</v>
       </c>
     </row>
     <row r="32" spans="2:3" ht="51" x14ac:dyDescent="0.2">
       <c r="B32" s="39" t="s">
+        <v>323</v>
+      </c>
+      <c r="C32" s="40" t="s">
         <v>324</v>
-      </c>
-      <c r="C32" s="40" t="s">
-        <v>325</v>
       </c>
     </row>
   </sheetData>
@@ -2931,10 +2932,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="B2:F48"/>
+  <dimension ref="B2:G48"/>
   <sheetViews>
     <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2947,7 +2948,7 @@
     <col min="23" max="26" width="39.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
         <v>167</v>
       </c>
@@ -2955,15 +2956,15 @@
         <v>49</v>
       </c>
     </row>
-    <row r="3" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B3" s="4" t="s">
         <v>3</v>
       </c>
       <c r="C3" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.2">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
         <v>14</v>
       </c>
@@ -2971,7 +2972,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
         <v>15</v>
       </c>
@@ -2980,15 +2981,15 @@
         <v>UAT</v>
       </c>
     </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
         <v>16</v>
       </c>
       <c r="C7" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.2">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="8" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
         <v>17</v>
       </c>
@@ -2997,7 +2998,7 @@
       </c>
       <c r="E8" s="9"/>
     </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
         <v>18</v>
       </c>
@@ -3005,7 +3006,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
         <v>20</v>
       </c>
@@ -3013,7 +3014,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
         <v>22</v>
       </c>
@@ -3021,15 +3022,15 @@
         <v>21</v>
       </c>
     </row>
-    <row r="12" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C12" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="13" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
         <v>24</v>
       </c>
@@ -3037,9 +3038,9 @@
         <v>25</v>
       </c>
     </row>
-    <row r="15" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B15" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C15" t="s">
         <v>27</v>
@@ -3053,8 +3054,11 @@
       <c r="F15" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="16" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="G15" s="10" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="16" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B16" t="s">
         <v>31</v>
       </c>
@@ -3070,14 +3074,13 @@
       <c r="F16" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="G16" s="10"/>
+    </row>
+    <row r="17" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B17" t="s">
         <v>34</v>
       </c>
-      <c r="C17" s="1" t="s">
-        <v>25</v>
-      </c>
+      <c r="C17" s="1"/>
       <c r="D17" s="1" t="s">
         <v>25</v>
       </c>
@@ -3087,25 +3090,24 @@
       <c r="F17" s="1" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="G17" s="10"/>
+    </row>
+    <row r="18" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B18" t="s">
         <v>35</v>
       </c>
       <c r="C18" t="s">
+        <v>191</v>
+      </c>
+      <c r="D18" t="s">
+        <v>190</v>
+      </c>
+      <c r="F18" t="s">
         <v>192</v>
       </c>
-      <c r="D18" t="s">
-        <v>191</v>
-      </c>
-      <c r="E18" t="s">
-        <v>168</v>
-      </c>
-      <c r="F18" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="G18" s="10"/>
+    </row>
+    <row r="19" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B19" t="s">
         <v>36</v>
       </c>
@@ -3121,12 +3123,10 @@
         <f>AvailabilityZone1</f>
         <v>eu-west-1a</v>
       </c>
-      <c r="F19" t="str">
-        <f>AvailabilityZone2</f>
-        <v>eu-west-1b</v>
-      </c>
-    </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="F19" s="10"/>
+      <c r="G19" s="10"/>
+    </row>
+    <row r="21" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B21" t="s">
         <v>37</v>
       </c>
@@ -3137,7 +3137,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="22" spans="2:6" ht="68" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:7" ht="68" x14ac:dyDescent="0.2">
       <c r="B22" t="s">
         <v>26</v>
       </c>
@@ -3156,7 +3156,7 @@
 Private-AZ2</v>
       </c>
     </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B23" t="s">
         <v>24</v>
       </c>
@@ -3167,7 +3167,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="25" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B25" t="s">
         <v>40</v>
       </c>
@@ -3175,15 +3175,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B26" t="s">
         <v>41</v>
       </c>
       <c r="C26" s="24" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="27" spans="2:6" x14ac:dyDescent="0.2">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="27" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B27" t="s">
         <v>42</v>
       </c>
@@ -3191,7 +3191,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="28" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B28" t="s">
         <v>43</v>
       </c>
@@ -3199,7 +3199,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="29" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B29" t="s">
         <v>45</v>
       </c>
@@ -3207,15 +3207,15 @@
         <v>25</v>
       </c>
     </row>
-    <row r="30" spans="2:6" ht="102" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:7" ht="102" x14ac:dyDescent="0.2">
       <c r="B30" t="s">
         <v>46</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="31" spans="2:6" x14ac:dyDescent="0.2">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="31" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B31" t="s">
         <v>24</v>
       </c>
@@ -3228,7 +3228,7 @@
         <v>47</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="34" spans="2:5" x14ac:dyDescent="0.2">
@@ -3295,7 +3295,7 @@
         <v>52</v>
       </c>
       <c r="C42" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D42" s="1"/>
       <c r="E42" s="1"/>
@@ -3305,7 +3305,7 @@
         <v>53</v>
       </c>
       <c r="C43" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D43" s="1"/>
       <c r="E43" s="1"/>
@@ -3336,7 +3336,7 @@
         <v>120</v>
       </c>
       <c r="C46" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D46" s="1"/>
       <c r="E46" s="1"/>
@@ -3346,7 +3346,7 @@
         <v>24</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D47" s="5"/>
       <c r="E47" s="5"/>
@@ -3407,13 +3407,13 @@
         <v>55</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E2" s="10" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="F2" s="10"/>
     </row>
@@ -3422,13 +3422,13 @@
         <v>122</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F3" s="10"/>
     </row>
@@ -3437,13 +3437,13 @@
         <v>106</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="F4" s="10"/>
     </row>
@@ -3533,7 +3533,7 @@
         <v>163</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D10" s="8" t="s">
         <v>125</v>
@@ -3611,13 +3611,13 @@
         <v>24</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="F15" s="10"/>
     </row>
@@ -3630,25 +3630,25 @@
         <v>61</v>
       </c>
       <c r="C17" s="10" t="s">
+        <v>198</v>
+      </c>
+      <c r="D17" s="10" t="s">
         <v>199</v>
       </c>
-      <c r="D17" s="10" t="s">
+      <c r="E17" s="10" t="s">
         <v>200</v>
       </c>
-      <c r="E17" s="10" t="s">
+      <c r="F17" s="10" t="s">
         <v>201</v>
       </c>
-      <c r="F17" s="10" t="s">
+      <c r="G17" s="10" t="s">
         <v>202</v>
       </c>
-      <c r="G17" s="10" t="s">
+      <c r="H17" s="10" t="s">
         <v>203</v>
       </c>
-      <c r="H17" s="10" t="s">
+      <c r="I17" s="10" t="s">
         <v>204</v>
-      </c>
-      <c r="I17" s="10" t="s">
-        <v>205</v>
       </c>
       <c r="J17" s="10"/>
       <c r="K17" s="10"/>
@@ -3658,25 +3658,25 @@
         <v>122</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D18" s="10" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E18" s="10" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F18" s="10" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="G18" s="10" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="H18" s="10" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="I18" s="10" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="J18" s="11"/>
       <c r="K18" s="11"/>
@@ -3686,25 +3686,25 @@
         <v>106</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="H19" s="3" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="I19" s="3" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="J19" s="11"/>
       <c r="K19" s="11"/>
@@ -4008,22 +4008,22 @@
         <v>24</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="D30" s="5" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="E30" s="5" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="F30" s="5" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="G30" s="5" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="H30" s="5" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="I30" s="5" t="s">
         <v>25</v>
@@ -4047,7 +4047,7 @@
         <v>61</v>
       </c>
       <c r="C32" s="21" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D32" s="5"/>
       <c r="E32" s="5"/>
@@ -4063,7 +4063,7 @@
         <v>122</v>
       </c>
       <c r="C33" s="22" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D33" s="5"/>
       <c r="E33" s="5"/>
@@ -4079,7 +4079,7 @@
         <v>106</v>
       </c>
       <c r="C34" s="28" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D34" s="5"/>
       <c r="E34" s="5"/>
@@ -4285,19 +4285,19 @@
         <v>138</v>
       </c>
       <c r="C47" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D47" s="10" t="s">
+        <v>225</v>
+      </c>
+      <c r="E47" s="24" t="s">
         <v>226</v>
       </c>
-      <c r="E47" s="24" t="s">
-        <v>227</v>
-      </c>
       <c r="F47" s="24" t="s">
+        <v>219</v>
+      </c>
+      <c r="G47" s="11" t="s">
         <v>220</v>
-      </c>
-      <c r="G47" s="11" t="s">
-        <v>221</v>
       </c>
     </row>
     <row r="48" spans="2:11" ht="17" x14ac:dyDescent="0.2">
@@ -4305,19 +4305,19 @@
         <v>65</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D48" s="10" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="E48" s="10" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="F48" s="10" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="G48" s="10" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="49" spans="2:11" ht="34" x14ac:dyDescent="0.2">
@@ -4355,7 +4355,7 @@
         <v>133</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D50" s="10" t="s">
         <v>139</v>
@@ -4364,10 +4364,10 @@
         <v>139</v>
       </c>
       <c r="F50" s="10" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="G50" s="10" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="51" spans="2:11" ht="17" x14ac:dyDescent="0.2">
@@ -4378,10 +4378,10 @@
         <v>25</v>
       </c>
       <c r="D51" s="10" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E51" s="10" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="F51" s="12" t="s">
         <v>25</v>
@@ -4395,7 +4395,7 @@
         <v>137</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="D52" s="13"/>
       <c r="E52" s="13"/>
@@ -4459,10 +4459,10 @@
         <v>132</v>
       </c>
       <c r="C56" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D56" s="24" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="E56" s="10"/>
       <c r="F56" s="10"/>
@@ -4475,10 +4475,10 @@
         <v>65</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D57" s="3" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E57" s="10"/>
       <c r="F57" s="10"/>
@@ -4527,10 +4527,10 @@
         <v>134</v>
       </c>
       <c r="C60" s="32" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D60" s="3" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E60" s="10"/>
       <c r="F60" s="10"/>
@@ -4559,10 +4559,10 @@
         <v>135</v>
       </c>
       <c r="C62" s="32" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D62" s="32" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="E62" s="10"/>
       <c r="F62" s="10"/>
@@ -4611,10 +4611,10 @@
         <v>93</v>
       </c>
       <c r="C65" s="33" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D65" s="33" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E65" s="10"/>
       <c r="F65" s="10"/>
@@ -4627,10 +4627,10 @@
         <v>24</v>
       </c>
       <c r="C66" s="5" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D66" s="5" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E66" s="10"/>
       <c r="F66" s="10"/>
@@ -4649,28 +4649,28 @@
         <v>67</v>
       </c>
       <c r="C69" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D69" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="E69" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="F69" s="10" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="G69" s="10" t="s">
+        <v>228</v>
+      </c>
+      <c r="H69" s="10" t="s">
+        <v>227</v>
+      </c>
+      <c r="I69" s="10" t="s">
         <v>229</v>
       </c>
-      <c r="H69" s="10" t="s">
-        <v>228</v>
-      </c>
-      <c r="I69" s="10" t="s">
+      <c r="J69" s="10" t="s">
         <v>230</v>
-      </c>
-      <c r="J69" s="10" t="s">
-        <v>231</v>
       </c>
     </row>
     <row r="70" spans="2:10" ht="17" x14ac:dyDescent="0.2">
@@ -4681,25 +4681,25 @@
         <v>130</v>
       </c>
       <c r="D70" s="3" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="E70" s="3" t="s">
         <v>130</v>
       </c>
       <c r="F70" s="10" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="G70" s="10" t="s">
         <v>139</v>
       </c>
       <c r="H70" s="10" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="I70" s="10" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="J70" s="10" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="71" spans="2:10" ht="17" x14ac:dyDescent="0.2">
@@ -4716,19 +4716,19 @@
         <v>141</v>
       </c>
       <c r="F71" s="10" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="G71" s="10" t="s">
         <v>139</v>
       </c>
       <c r="H71" s="10" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="I71" s="10" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="J71" s="10" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="72" spans="2:10" ht="17" x14ac:dyDescent="0.2">
@@ -4887,10 +4887,10 @@
         <v>67</v>
       </c>
       <c r="C78" s="18" t="s">
+        <v>231</v>
+      </c>
+      <c r="D78" s="18" t="s">
         <v>232</v>
-      </c>
-      <c r="D78" s="18" t="s">
-        <v>233</v>
       </c>
       <c r="F78" s="10"/>
       <c r="G78" s="10"/>
@@ -4903,10 +4903,10 @@
         <v>140</v>
       </c>
       <c r="C79" s="19" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D79" s="19" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="F79" s="10"/>
       <c r="G79" s="10"/>
@@ -4919,10 +4919,10 @@
         <v>142</v>
       </c>
       <c r="C80" s="20" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D80" s="20" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="F80" s="10"/>
       <c r="G80" s="10"/>
@@ -5015,7 +5015,7 @@
         <v>70</v>
       </c>
       <c r="C87" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="88" spans="2:10" ht="17" x14ac:dyDescent="0.2">
@@ -5032,7 +5032,7 @@
         <v>71</v>
       </c>
       <c r="C89" s="5" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="90" spans="2:10" ht="17" x14ac:dyDescent="0.2">
@@ -5056,7 +5056,7 @@
         <v>114</v>
       </c>
       <c r="C92" s="5" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="93" spans="2:10" ht="17" x14ac:dyDescent="0.2">
@@ -5092,7 +5092,7 @@
         <v>77</v>
       </c>
       <c r="C97" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="98" spans="2:3" ht="34" x14ac:dyDescent="0.2">
@@ -5119,7 +5119,7 @@
         <v>78</v>
       </c>
       <c r="C100" s="3" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="101" spans="2:3" ht="17" x14ac:dyDescent="0.2">
@@ -5135,7 +5135,7 @@
         <v>80</v>
       </c>
       <c r="C102" s="3" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="103" spans="2:3" ht="17" x14ac:dyDescent="0.2">
@@ -5143,7 +5143,7 @@
         <v>24</v>
       </c>
       <c r="C103" s="13" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
   </sheetData>
@@ -5183,23 +5183,23 @@
   <sheetData>
     <row r="2" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
+        <v>299</v>
+      </c>
+      <c r="C2" t="s">
         <v>300</v>
-      </c>
-      <c r="C2" t="s">
-        <v>301</v>
       </c>
     </row>
     <row r="3" spans="2:3" ht="17" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="4" spans="2:3" ht="17" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>25</v>
@@ -5210,28 +5210,28 @@
         <v>106</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="6" spans="2:3" ht="17" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="7" spans="2:3" ht="17" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
+        <v>304</v>
+      </c>
+      <c r="C7" s="3" t="s">
         <v>305</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>306</v>
       </c>
     </row>
     <row r="8" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C8" s="3">
         <v>0</v>
@@ -5239,7 +5239,7 @@
     </row>
     <row r="9" spans="2:3" ht="17" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>21</v>
@@ -5247,26 +5247,26 @@
     </row>
     <row r="10" spans="2:3" ht="17" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="11" spans="2:3" ht="17" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
+        <v>308</v>
+      </c>
+      <c r="C11" s="3" t="s">
         <v>309</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>310</v>
       </c>
     </row>
     <row r="12" spans="2:3" ht="17" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="13" spans="2:3" ht="17" x14ac:dyDescent="0.2">
@@ -5280,7 +5280,7 @@
     </row>
     <row r="14" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B14" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C14" s="5" t="b">
         <v>1</v>
@@ -5291,7 +5291,7 @@
         <v>24</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="17" spans="2:3" x14ac:dyDescent="0.2">
@@ -5299,7 +5299,7 @@
         <v>83</v>
       </c>
       <c r="C17" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="18" spans="2:3" ht="17" x14ac:dyDescent="0.2">
@@ -5315,7 +5315,7 @@
         <v>85</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="20" spans="2:3" x14ac:dyDescent="0.2">
@@ -5331,7 +5331,7 @@
         <v>82</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="22" spans="2:3" ht="17" x14ac:dyDescent="0.2">
@@ -5352,7 +5352,7 @@
     </row>
     <row r="24" spans="2:3" ht="17" x14ac:dyDescent="0.2">
       <c r="B24" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C24" s="3" t="s">
         <v>75</v>
@@ -5393,7 +5393,7 @@
     </row>
     <row r="29" spans="2:3" ht="17" x14ac:dyDescent="0.2">
       <c r="B29" s="10" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C29" s="11" t="s">
         <v>92</v>
@@ -5401,7 +5401,7 @@
     </row>
     <row r="30" spans="2:3" ht="17" x14ac:dyDescent="0.2">
       <c r="B30" s="10" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C30" s="11" t="s">
         <v>92</v>
@@ -5409,7 +5409,7 @@
     </row>
     <row r="31" spans="2:3" ht="17" x14ac:dyDescent="0.2">
       <c r="B31" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C31" s="33" t="s">
         <v>146</v>
@@ -5425,7 +5425,7 @@
     </row>
     <row r="33" spans="2:3" ht="17" x14ac:dyDescent="0.2">
       <c r="B33" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C33" s="33" t="s">
         <v>147</v>
@@ -5500,10 +5500,10 @@
     </row>
     <row r="3" spans="2:9" ht="238" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C3" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D3" t="s">
         <v>99</v>
@@ -5515,10 +5515,10 @@
         <v>100</v>
       </c>
       <c r="G3" s="3" t="s">
+        <v>283</v>
+      </c>
+      <c r="H3" t="s">
         <v>284</v>
-      </c>
-      <c r="H3" t="s">
-        <v>285</v>
       </c>
     </row>
     <row r="4" spans="2:9" ht="238" x14ac:dyDescent="0.2">
@@ -5532,10 +5532,10 @@
         <v>443</v>
       </c>
       <c r="G4" s="3" t="s">
+        <v>283</v>
+      </c>
+      <c r="H4" t="s">
         <v>284</v>
-      </c>
-      <c r="H4" t="s">
-        <v>285</v>
       </c>
       <c r="I4" s="1" t="s">
         <v>25</v>
@@ -5553,10 +5553,10 @@
     </row>
     <row r="6" spans="2:9" ht="238" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C6" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D6" t="s">
         <v>99</v>
@@ -5568,10 +5568,10 @@
         <v>100</v>
       </c>
       <c r="G6" s="3" t="s">
+        <v>283</v>
+      </c>
+      <c r="H6" t="s">
         <v>284</v>
-      </c>
-      <c r="H6" t="s">
-        <v>285</v>
       </c>
     </row>
     <row r="7" spans="2:9" ht="238" x14ac:dyDescent="0.2">
@@ -5585,10 +5585,10 @@
         <v>443</v>
       </c>
       <c r="G7" s="3" t="s">
+        <v>283</v>
+      </c>
+      <c r="H7" t="s">
         <v>284</v>
-      </c>
-      <c r="H7" t="s">
-        <v>285</v>
       </c>
       <c r="I7" s="12"/>
     </row>
@@ -5597,10 +5597,10 @@
     </row>
     <row r="9" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B9" s="10" t="s">
+        <v>256</v>
+      </c>
+      <c r="C9" s="10" t="s">
         <v>257</v>
-      </c>
-      <c r="C9" s="10" t="s">
-        <v>258</v>
       </c>
       <c r="D9" t="s">
         <v>99</v>
@@ -5655,10 +5655,10 @@
     </row>
     <row r="12" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B12" s="10" t="s">
+        <v>258</v>
+      </c>
+      <c r="C12" s="10" t="s">
         <v>259</v>
-      </c>
-      <c r="C12" s="10" t="s">
-        <v>260</v>
       </c>
       <c r="D12" t="s">
         <v>99</v>
@@ -5733,10 +5733,10 @@
     </row>
     <row r="17" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B17" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C17" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D17" t="s">
         <v>99</v>
@@ -5771,10 +5771,10 @@
     </row>
     <row r="19" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B19" t="s">
+        <v>249</v>
+      </c>
+      <c r="C19" t="s">
         <v>250</v>
-      </c>
-      <c r="C19" t="s">
-        <v>251</v>
       </c>
       <c r="D19" t="s">
         <v>99</v>
@@ -5831,10 +5831,10 @@
     </row>
     <row r="22" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B22" t="s">
+        <v>260</v>
+      </c>
+      <c r="C22" s="1" t="s">
         <v>261</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>262</v>
       </c>
       <c r="D22" t="s">
         <v>99</v>
@@ -5884,10 +5884,10 @@
     </row>
     <row r="25" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B25" t="s">
+        <v>252</v>
+      </c>
+      <c r="C25" s="1" t="s">
         <v>253</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>254</v>
       </c>
       <c r="D25" t="s">
         <v>99</v>
@@ -5937,10 +5937,10 @@
     </row>
     <row r="28" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B28" t="s">
+        <v>262</v>
+      </c>
+      <c r="C28" s="1" t="s">
         <v>263</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>264</v>
       </c>
       <c r="D28" t="s">
         <v>99</v>
@@ -5974,10 +5974,10 @@
     </row>
     <row r="30" spans="2:9" ht="76" x14ac:dyDescent="0.2">
       <c r="B30" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D30" t="s">
         <v>99</v>
@@ -5989,10 +5989,10 @@
         <v>9389</v>
       </c>
       <c r="G30" s="37" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="H30" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="I30" s="1"/>
     </row>
@@ -6009,14 +6009,14 @@
         <v>53</v>
       </c>
       <c r="G31" s="36" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="H31" t="str">
         <f>SecurityGroups[[#This Row],[Rule Ingress/Egress]] &amp; " from " &amp;SecurityGroups[[#This Row],[Source]] &amp; " (" &amp; SecurityGroups[[#This Row],[Protocol]] &amp; ":" &amp; SecurityGroups[[#This Row],[Port/Range]] &amp; ")"</f>
         <v>Ingress from All VPN IP's (TCP:53)</v>
       </c>
       <c r="I31" s="12" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="32" spans="2:9" x14ac:dyDescent="0.2">
@@ -6026,13 +6026,13 @@
         <v>99</v>
       </c>
       <c r="E32" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="F32">
         <v>53</v>
       </c>
       <c r="G32" s="36" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="H32" t="str">
         <f>SecurityGroups[[#This Row],[Rule Ingress/Egress]] &amp; " from " &amp;SecurityGroups[[#This Row],[Source]] &amp; " (" &amp; SecurityGroups[[#This Row],[Protocol]] &amp; ":" &amp; SecurityGroups[[#This Row],[Port/Range]] &amp; ")"</f>
@@ -6047,13 +6047,13 @@
         <v>99</v>
       </c>
       <c r="E33" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="F33" t="s">
         <v>23</v>
       </c>
       <c r="G33" s="36" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="H33" t="str">
         <f>SecurityGroups[[#This Row],[Rule Ingress/Egress]] &amp; " from " &amp;SecurityGroups[[#This Row],[Source]] &amp; " (" &amp; SecurityGroups[[#This Row],[Protocol]] &amp; ":" &amp; SecurityGroups[[#This Row],[Port/Range]] &amp; ")"</f>
@@ -6074,7 +6074,7 @@
         <v>464</v>
       </c>
       <c r="G34" s="36" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="H34" t="str">
         <f>SecurityGroups[[#This Row],[Rule Ingress/Egress]] &amp; " from " &amp;SecurityGroups[[#This Row],[Source]] &amp; " (" &amp; SecurityGroups[[#This Row],[Protocol]] &amp; ":" &amp; SecurityGroups[[#This Row],[Port/Range]] &amp; ")"</f>
@@ -6095,7 +6095,7 @@
         <v>464</v>
       </c>
       <c r="G35" s="36" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="H35" t="str">
         <f>SecurityGroups[[#This Row],[Rule Ingress/Egress]] &amp; " from " &amp;SecurityGroups[[#This Row],[Source]] &amp; " (" &amp; SecurityGroups[[#This Row],[Protocol]] &amp; ":" &amp; SecurityGroups[[#This Row],[Port/Range]] &amp; ")"</f>
@@ -6116,7 +6116,7 @@
         <v>88</v>
       </c>
       <c r="G36" s="36" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="H36" t="str">
         <f>SecurityGroups[[#This Row],[Rule Ingress/Egress]] &amp; " from " &amp;SecurityGroups[[#This Row],[Source]] &amp; " (" &amp; SecurityGroups[[#This Row],[Protocol]] &amp; ":" &amp; SecurityGroups[[#This Row],[Port/Range]] &amp; ")"</f>
@@ -6137,7 +6137,7 @@
         <v>88</v>
       </c>
       <c r="G37" s="36" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="H37" t="str">
         <f>SecurityGroups[[#This Row],[Rule Ingress/Egress]] &amp; " from " &amp;SecurityGroups[[#This Row],[Source]] &amp; " (" &amp; SecurityGroups[[#This Row],[Protocol]] &amp; ":" &amp; SecurityGroups[[#This Row],[Port/Range]] &amp; ")"</f>
@@ -6158,7 +6158,7 @@
         <v>389</v>
       </c>
       <c r="G38" s="36" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="H38" t="str">
         <f>SecurityGroups[[#This Row],[Rule Ingress/Egress]] &amp; " from " &amp;SecurityGroups[[#This Row],[Source]] &amp; " (" &amp; SecurityGroups[[#This Row],[Protocol]] &amp; ":" &amp; SecurityGroups[[#This Row],[Port/Range]] &amp; ")"</f>
@@ -6179,7 +6179,7 @@
         <v>389</v>
       </c>
       <c r="G39" s="36" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="H39" t="str">
         <f>SecurityGroups[[#This Row],[Rule Ingress/Egress]] &amp; " from " &amp;SecurityGroups[[#This Row],[Source]] &amp; " (" &amp; SecurityGroups[[#This Row],[Protocol]] &amp; ":" &amp; SecurityGroups[[#This Row],[Port/Range]] &amp; ")"</f>
@@ -6197,10 +6197,10 @@
         <v>102</v>
       </c>
       <c r="F40" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="G40" s="36" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="H40" t="str">
         <f>SecurityGroups[[#This Row],[Rule Ingress/Egress]] &amp; " from " &amp;SecurityGroups[[#This Row],[Source]] &amp; " (" &amp; SecurityGroups[[#This Row],[Protocol]] &amp; ":" &amp; SecurityGroups[[#This Row],[Port/Range]] &amp; ")"</f>
@@ -6218,10 +6218,10 @@
         <v>102</v>
       </c>
       <c r="F41" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="G41" s="36" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="H41" t="str">
         <f>SecurityGroups[[#This Row],[Rule Ingress/Egress]] &amp; " from " &amp;SecurityGroups[[#This Row],[Source]] &amp; " (" &amp; SecurityGroups[[#This Row],[Protocol]] &amp; ":" &amp; SecurityGroups[[#This Row],[Port/Range]] &amp; ")"</f>
@@ -6242,7 +6242,7 @@
         <v>445</v>
       </c>
       <c r="G42" s="36" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="H42" t="str">
         <f>SecurityGroups[[#This Row],[Rule Ingress/Egress]] &amp; " from " &amp;SecurityGroups[[#This Row],[Source]] &amp; " (" &amp; SecurityGroups[[#This Row],[Protocol]] &amp; ":" &amp; SecurityGroups[[#This Row],[Port/Range]] &amp; ")"</f>
@@ -6263,7 +6263,7 @@
         <v>445</v>
       </c>
       <c r="G43" s="36" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="H43" t="str">
         <f>SecurityGroups[[#This Row],[Rule Ingress/Egress]] &amp; " from " &amp;SecurityGroups[[#This Row],[Source]] &amp; " (" &amp; SecurityGroups[[#This Row],[Protocol]] &amp; ":" &amp; SecurityGroups[[#This Row],[Port/Range]] &amp; ")"</f>
@@ -6284,7 +6284,7 @@
         <v>636</v>
       </c>
       <c r="G44" s="36" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="H44" t="str">
         <f>SecurityGroups[[#This Row],[Rule Ingress/Egress]] &amp; " from " &amp;SecurityGroups[[#This Row],[Source]] &amp; " (" &amp; SecurityGroups[[#This Row],[Protocol]] &amp; ":" &amp; SecurityGroups[[#This Row],[Port/Range]] &amp; ")"</f>
@@ -6305,7 +6305,7 @@
         <v>873</v>
       </c>
       <c r="G45" s="36" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="H45" t="str">
         <f>SecurityGroups[[#This Row],[Rule Ingress/Egress]] &amp; " from " &amp;SecurityGroups[[#This Row],[Source]] &amp; " (" &amp; SecurityGroups[[#This Row],[Protocol]] &amp; ":" &amp; SecurityGroups[[#This Row],[Port/Range]] &amp; ")"</f>
@@ -6326,7 +6326,7 @@
         <v>3269</v>
       </c>
       <c r="G46" s="36" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="H46" t="str">
         <f>SecurityGroups[[#This Row],[Rule Ingress/Egress]] &amp; " from " &amp;SecurityGroups[[#This Row],[Source]] &amp; " (" &amp; SecurityGroups[[#This Row],[Protocol]] &amp; ":" &amp; SecurityGroups[[#This Row],[Port/Range]] &amp; ")"</f>
@@ -6347,7 +6347,7 @@
         <v>123</v>
       </c>
       <c r="G47" s="36" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="H47" t="str">
         <f>SecurityGroups[[#This Row],[Rule Ingress/Egress]] &amp; " from " &amp;SecurityGroups[[#This Row],[Source]] &amp; " (" &amp; SecurityGroups[[#This Row],[Protocol]] &amp; ":" &amp; SecurityGroups[[#This Row],[Port/Range]] &amp; ")"</f>
@@ -6365,10 +6365,10 @@
         <v>102</v>
       </c>
       <c r="F48" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="G48" s="36" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="H48" t="str">
         <f>SecurityGroups[[#This Row],[Rule Ingress/Egress]] &amp; " from " &amp;SecurityGroups[[#This Row],[Source]] &amp; " (" &amp; SecurityGroups[[#This Row],[Protocol]] &amp; ":" &amp; SecurityGroups[[#This Row],[Port/Range]] &amp; ")"</f>
@@ -6386,10 +6386,10 @@
         <v>102</v>
       </c>
       <c r="F49" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="G49" s="36" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="H49" t="str">
         <f>SecurityGroups[[#This Row],[Rule Ingress/Egress]] &amp; " from " &amp;SecurityGroups[[#This Row],[Source]] &amp; " (" &amp; SecurityGroups[[#This Row],[Protocol]] &amp; ":" &amp; SecurityGroups[[#This Row],[Port/Range]] &amp; ")"</f>
@@ -6407,10 +6407,10 @@
         <v>102</v>
       </c>
       <c r="F50" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="G50" s="36" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="H50" t="str">
         <f>SecurityGroups[[#This Row],[Rule Ingress/Egress]] &amp; " from " &amp;SecurityGroups[[#This Row],[Source]] &amp; " (" &amp; SecurityGroups[[#This Row],[Protocol]] &amp; ":" &amp; SecurityGroups[[#This Row],[Port/Range]] &amp; ")"</f>
@@ -6430,10 +6430,10 @@
     </row>
     <row r="52" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B52" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C52" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="D52" t="s">
         <v>99</v>
@@ -6534,10 +6534,10 @@
     </row>
     <row r="57" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B57" t="s">
+        <v>265</v>
+      </c>
+      <c r="C57" t="s">
         <v>266</v>
-      </c>
-      <c r="C57" t="s">
-        <v>267</v>
       </c>
       <c r="D57" t="s">
         <v>99</v>
@@ -6675,10 +6675,10 @@
     </row>
     <row r="64" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B64" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C64" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D64" t="s">
         <v>99</v>
@@ -6750,13 +6750,13 @@
   <sheetData>
     <row r="2" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C2" t="s">
         <v>31</v>
       </c>
       <c r="D2" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E2" t="s">
         <v>24</v>
@@ -6764,32 +6764,32 @@
     </row>
     <row r="3" spans="2:5" ht="51" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C3" t="s">
         <v>107</v>
       </c>
       <c r="D3" s="32" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="E3" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="4" spans="2:5" ht="17" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
+        <v>321</v>
+      </c>
+      <c r="C4" t="s">
+        <v>319</v>
+      </c>
+      <c r="D4" s="32" t="s">
         <v>322</v>
-      </c>
-      <c r="C4" t="s">
-        <v>320</v>
-      </c>
-      <c r="D4" s="32" t="s">
-        <v>323</v>
       </c>
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="D5" s="25"/>
     </row>
@@ -6805,7 +6805,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="B2:E15"/>
   <sheetViews>
-    <sheetView showGridLines="0" showRowColHeaders="0" workbookViewId="0"/>
+    <sheetView showGridLines="0" showRowColHeaders="0" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -6819,13 +6821,13 @@
         <v>153</v>
       </c>
       <c r="C2" t="s">
+        <v>275</v>
+      </c>
+      <c r="D2" t="s">
         <v>276</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>277</v>
-      </c>
-      <c r="E2" t="s">
-        <v>278</v>
       </c>
     </row>
     <row r="3" spans="2:5" ht="17" x14ac:dyDescent="0.2">
@@ -6878,13 +6880,13 @@
         <v>152</v>
       </c>
       <c r="C7" t="s">
+        <v>278</v>
+      </c>
+      <c r="D7" t="s">
         <v>279</v>
       </c>
-      <c r="D7" t="s">
+      <c r="E7" t="s">
         <v>280</v>
-      </c>
-      <c r="E7" t="s">
-        <v>281</v>
       </c>
     </row>
     <row r="8" spans="2:5" ht="17" x14ac:dyDescent="0.2">
@@ -7025,6 +7027,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100115BDFBCBC55954DBE3A036F43C688BE" ma:contentTypeVersion="6" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="f2602281623a1436ad7b29323987829d">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="6be0c7cb-7b3c-42ff-aba9-440d72149579" xmlns:ns3="de305a12-becf-467d-a6c1-7efafa548d98" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="6563a88de22b55a81dac40f5abe7b9cd" ns2:_="" ns3:_="">
     <xsd:import namespace="6be0c7cb-7b3c-42ff-aba9-440d72149579"/>
@@ -7203,15 +7214,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
@@ -7219,6 +7221,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{67FBEE8F-C278-44E2-AAC4-E0F2E05597DF}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C3E69D3C-B089-40EA-8109-45FCB7B3FCBC}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -7237,27 +7247,19 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{67FBEE8F-C278-44E2-AAC4-E0F2E05597DF}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{34B1892E-3E6C-4CE1-BBE1-31A16A61250C}">
   <ds:schemaRefs>
+    <ds:schemaRef ds:uri="de305a12-becf-467d-a6c1-7efafa548d98"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
     <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="6be0c7cb-7b3c-42ff-aba9-440d72149579"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="6be0c7cb-7b3c-42ff-aba9-440d72149579"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="de305a12-becf-467d-a6c1-7efafa548d98"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>